--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H2">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I2">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J2">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>697.8381026896413</v>
+        <v>799.4995884157651</v>
       </c>
       <c r="R2">
-        <v>6280.542924206772</v>
+        <v>7195.496295741886</v>
       </c>
       <c r="S2">
-        <v>0.008384614183090611</v>
+        <v>0.008874363440353718</v>
       </c>
       <c r="T2">
-        <v>0.009203066850930549</v>
+        <v>0.009277814710492428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H3">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I3">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J3">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>4595.707922364968</v>
+        <v>4047.28829721172</v>
       </c>
       <c r="R3">
-        <v>41361.37130128471</v>
+        <v>36425.59467490547</v>
       </c>
       <c r="S3">
-        <v>0.05521801930660783</v>
+        <v>0.04492448503759467</v>
       </c>
       <c r="T3">
-        <v>0.06060805088438425</v>
+        <v>0.04696686708229742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H4">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I4">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J4">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>3859.525919104701</v>
+        <v>4717.134305125805</v>
       </c>
       <c r="R4">
-        <v>34735.73327194231</v>
+        <v>42454.20874613224</v>
       </c>
       <c r="S4">
-        <v>0.046372698247065</v>
+        <v>0.05235970703074013</v>
       </c>
       <c r="T4">
-        <v>0.05089930588415689</v>
+        <v>0.05474011329284842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H5">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I5">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J5">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>1704.612290351545</v>
+        <v>1440.900742675421</v>
       </c>
       <c r="R5">
-        <v>10227.67374210927</v>
+        <v>8645.404456052524</v>
       </c>
       <c r="S5">
-        <v>0.02048113499573214</v>
+        <v>0.01599385047503938</v>
       </c>
       <c r="T5">
-        <v>0.01498691535334529</v>
+        <v>0.01114731456230301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H6">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I6">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J6">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>3973.254959257731</v>
+        <v>5467.79155543685</v>
       </c>
       <c r="R6">
-        <v>35759.29463331958</v>
+        <v>49210.12399893165</v>
       </c>
       <c r="S6">
-        <v>0.04773916723094689</v>
+        <v>0.06069192552705855</v>
       </c>
       <c r="T6">
-        <v>0.05239916087256527</v>
+        <v>0.06345113576288362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I7">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J7">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>2596.285902815442</v>
+        <v>3377.570006541421</v>
       </c>
       <c r="R7">
-        <v>23366.57312533898</v>
+        <v>30398.13005887279</v>
       </c>
       <c r="S7">
-        <v>0.03119470765525985</v>
+        <v>0.03749068069275745</v>
       </c>
       <c r="T7">
-        <v>0.03423973645985577</v>
+        <v>0.03919510296997433</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I8">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J8">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>17098.19461893152</v>
@@ -948,10 +948,10 @@
         <v>153883.7515703837</v>
       </c>
       <c r="S8">
-        <v>0.2054369982874036</v>
+        <v>0.1897882067994153</v>
       </c>
       <c r="T8">
-        <v>0.2254904504379445</v>
+        <v>0.1984164643195423</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I9">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J9">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>14359.25137463992</v>
+        <v>19928.02945326239</v>
       </c>
       <c r="R9">
-        <v>129233.2623717593</v>
+        <v>179352.2650793615</v>
       </c>
       <c r="S9">
-        <v>0.1725282444027205</v>
+        <v>0.2211990832525069</v>
       </c>
       <c r="T9">
-        <v>0.1893693534657852</v>
+        <v>0.2312553595918254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I10">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J10">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>6341.959320002823</v>
+        <v>6087.236568198079</v>
       </c>
       <c r="R10">
-        <v>38051.75592001694</v>
+        <v>36523.41940918848</v>
       </c>
       <c r="S10">
-        <v>0.076199453509532</v>
+        <v>0.06756770164277931</v>
       </c>
       <c r="T10">
-        <v>0.05575837276383829</v>
+        <v>0.0470930015032571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I11">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J11">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>14782.37688548834</v>
+        <v>23099.25987111341</v>
       </c>
       <c r="R11">
-        <v>133041.391969395</v>
+        <v>207893.3388400207</v>
       </c>
       <c r="S11">
-        <v>0.177612151609583</v>
+        <v>0.2563994156715396</v>
       </c>
       <c r="T11">
-        <v>0.1949495193347216</v>
+        <v>0.2680559891949001</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H12">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I12">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J12">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>2.482512891848889</v>
+        <v>1.431100104301111</v>
       </c>
       <c r="R12">
-        <v>22.34261602664</v>
+        <v>12.87990093871</v>
       </c>
       <c r="S12">
-        <v>2.982771035642169E-05</v>
+        <v>1.588506439416917E-05</v>
       </c>
       <c r="T12">
-        <v>3.273930158574785E-05</v>
+        <v>1.660724006898099E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H13">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I13">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J13">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>16.34892695092222</v>
+        <v>7.244624998186111</v>
       </c>
       <c r="R13">
-        <v>147.1403425583</v>
+        <v>65.201624983675</v>
       </c>
       <c r="S13">
-        <v>0.0001964344512898859</v>
+        <v>8.04145945220198E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002156091321044324</v>
+        <v>8.407044775765254E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H14">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I14">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J14">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>13.73000816904889</v>
+        <v>8.443645867841667</v>
       </c>
       <c r="R14">
-        <v>123.57007352144</v>
+        <v>75.992812810575</v>
       </c>
       <c r="S14">
-        <v>0.0001649678066939208</v>
+        <v>9.372360321203923E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001810709139506193</v>
+        <v>9.798451803844019E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H15">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I15">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J15">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>6.064045471423333</v>
+        <v>2.579204833884167</v>
       </c>
       <c r="R15">
-        <v>36.38427282854</v>
+        <v>15.475229003305</v>
       </c>
       <c r="S15">
-        <v>7.286028302357585E-05</v>
+        <v>2.86289091509855E-05</v>
       </c>
       <c r="T15">
-        <v>5.33149600606926E-05</v>
+        <v>1.995363507866262E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H16">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I16">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J16">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>14.13459170679111</v>
+        <v>9.787318441011113</v>
       </c>
       <c r="R16">
-        <v>127.21132536112</v>
+        <v>88.08586596910001</v>
       </c>
       <c r="S16">
-        <v>0.0001698289297190519</v>
+        <v>0.0001086382309766003</v>
       </c>
       <c r="T16">
-        <v>0.0001864065488640422</v>
+        <v>0.000113577202945432</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H17">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I17">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J17">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>618.4026440646774</v>
+        <v>193.5965497284174</v>
       </c>
       <c r="R17">
-        <v>3710.415864388064</v>
+        <v>1161.579298370504</v>
       </c>
       <c r="S17">
-        <v>0.007430186973598734</v>
+        <v>0.002148901848083315</v>
       </c>
       <c r="T17">
-        <v>0.005436983021500388</v>
+        <v>0.00149773094987247</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H18">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I18">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J18">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>4072.574884612514</v>
+        <v>980.0393414198033</v>
       </c>
       <c r="R18">
-        <v>24435.44930767508</v>
+        <v>5880.23604851882</v>
       </c>
       <c r="S18">
-        <v>0.04893250885500489</v>
+        <v>0.01087833618380977</v>
       </c>
       <c r="T18">
-        <v>0.03580599260683513</v>
+        <v>0.007581928788484054</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H19">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I19">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J19">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>3420.193056256757</v>
+        <v>1142.24064566123</v>
       </c>
       <c r="R19">
-        <v>20521.15833754055</v>
+        <v>6853.44387396738</v>
       </c>
       <c r="S19">
-        <v>0.04109405763008663</v>
+        <v>0.01267875402666332</v>
       </c>
       <c r="T19">
-        <v>0.03007026531273473</v>
+        <v>0.008836775085139963</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H20">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I20">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J20">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>1510.574936214626</v>
+        <v>348.910013619683</v>
       </c>
       <c r="R20">
-        <v>6042.299744858505</v>
+        <v>1395.640054478732</v>
       </c>
       <c r="S20">
-        <v>0.01814975133342537</v>
+        <v>0.00387286536941859</v>
       </c>
       <c r="T20">
-        <v>0.008853962015125727</v>
+        <v>0.00179952699519251</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H21">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I21">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J21">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>3520.976230558219</v>
+        <v>1324.010162236973</v>
       </c>
       <c r="R21">
-        <v>21125.85738334931</v>
+        <v>7944.060973421841</v>
       </c>
       <c r="S21">
-        <v>0.04230498037765226</v>
+        <v>0.01469637701964939</v>
       </c>
       <c r="T21">
-        <v>0.03095634885844585</v>
+        <v>0.01024300794983077</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H22">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I22">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J22">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>1.125521471250222</v>
+        <v>0.4724805592260001</v>
       </c>
       <c r="R22">
-        <v>10.129693241252</v>
+        <v>4.252325033034</v>
       </c>
       <c r="S22">
-        <v>1.352328463413626E-05</v>
+        <v>5.244485753121641E-06</v>
       </c>
       <c r="T22">
-        <v>1.484334160337511E-05</v>
+        <v>5.482913495296345E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H23">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I23">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J23">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>7.412275028090556</v>
+        <v>2.391827420205</v>
       </c>
       <c r="R23">
-        <v>66.710475252815</v>
+        <v>21.526446781845</v>
       </c>
       <c r="S23">
-        <v>8.905943382850332E-05</v>
+        <v>2.654903907525796E-05</v>
       </c>
       <c r="T23">
-        <v>9.775284888870413E-05</v>
+        <v>2.775602632655405E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H24">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I24">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J24">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>6.224909866710222</v>
+        <v>2.787686556345</v>
       </c>
       <c r="R24">
-        <v>56.024188800392</v>
+        <v>25.089179007105</v>
       </c>
       <c r="S24">
-        <v>7.479308933649885E-05</v>
+        <v>3.094303488987989E-05</v>
       </c>
       <c r="T24">
-        <v>8.20939146537688E-05</v>
+        <v>3.234978443447267E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H25">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I25">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J25">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>2.749316389507833</v>
+        <v>0.8515296299745001</v>
       </c>
       <c r="R25">
-        <v>16.495898337047</v>
+        <v>5.109177779847</v>
       </c>
       <c r="S25">
-        <v>3.303338855305103E-05</v>
+        <v>9.451891565820129E-06</v>
       </c>
       <c r="T25">
-        <v>2.417193178902945E-05</v>
+        <v>6.587732494899186E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H26">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I26">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J26">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>6.408339914601779</v>
+        <v>3.23130274146</v>
       </c>
       <c r="R26">
-        <v>57.67505923141601</v>
+        <v>29.08172467314001</v>
       </c>
       <c r="S26">
-        <v>7.699702485568122E-05</v>
+        <v>3.586712905049687E-05</v>
       </c>
       <c r="T26">
-        <v>8.451298433011486E-05</v>
+        <v>3.749774051563596E-05</v>
       </c>
     </row>
   </sheetData>
